--- a/Figure4_source.xlsx
+++ b/Figure4_source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jminich/Desktop/NSF_postdoc/Manuscript-FMP/supplemental/source-data/main-figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5BF2F4-9752-D640-82C8-DCA5BB095A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A29368-E8E4-FF42-9996-BECF8789E947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="500" windowWidth="14200" windowHeight="16220" xr2:uid="{71C3DA84-9606-564B-BA52-C1964BCE6745}"/>
+    <workbookView xWindow="14600" yWindow="500" windowWidth="14200" windowHeight="16220" activeTab="3" xr2:uid="{71C3DA84-9606-564B-BA52-C1964BCE6745}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure4a" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="70">
   <si>
     <t>distance_from_shore_m_log</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>PD_whole_tree</t>
+  </si>
+  <si>
+    <t>Seriola lalandi</t>
   </si>
 </sst>
 </file>
@@ -604,7 +607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E640DD18-FD52-B54B-82B8-182B2EE35DE3}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E55"/>
     </sheetView>
   </sheetViews>
@@ -1543,7 +1546,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H19"/>
+      <selection activeCell="A2" sqref="A2:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1576,143 +1579,143 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>5.6522395699999999</v>
+        <v>5.65400627</v>
       </c>
       <c r="B2" s="1">
-        <v>6.6357620280000003</v>
+        <v>6.6350481200000004</v>
       </c>
       <c r="C2" s="1">
-        <v>7.160827673</v>
+        <v>7.1625130099999996</v>
       </c>
       <c r="D2" s="1">
-        <v>2.6702458529999999</v>
+        <v>4.8264725200000003</v>
       </c>
       <c r="E2" s="1">
-        <v>6.1463965949999997</v>
+        <v>7.8303881999999998</v>
       </c>
       <c r="F2" s="1">
-        <v>4.765713248</v>
+        <v>3.8657296300000001</v>
       </c>
       <c r="G2" s="1">
-        <v>4.9382394449999998</v>
+        <v>3.9944207</v>
       </c>
       <c r="H2" s="1">
-        <v>0.30102999600000002</v>
+        <v>2.0124062999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
-        <v>6.9065068939999996</v>
+        <v>8.5653853899999994</v>
       </c>
       <c r="C3" s="1">
-        <v>2.3443922740000001</v>
+        <v>5.9862258199999996</v>
       </c>
       <c r="D3" s="1">
-        <v>5.978416095</v>
+        <v>4.7288491400000003</v>
       </c>
       <c r="E3" s="1">
-        <v>2.4456042029999998</v>
+        <v>1.66711148</v>
       </c>
       <c r="F3" s="1">
-        <v>2.7895807119999998</v>
+        <v>6.3702510400000003</v>
       </c>
       <c r="G3" s="1">
-        <v>2.951337519</v>
+        <v>3.5655544899999998</v>
       </c>
       <c r="H3" s="1">
-        <v>2.5943925499999998</v>
+        <v>4.2540088000000003</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
-        <v>8.5602625250000006</v>
+        <v>6.9076666199999996</v>
       </c>
       <c r="C4" s="1">
-        <v>2.8536982119999998</v>
+        <v>7.1848885200000003</v>
       </c>
       <c r="D4" s="1">
-        <v>4.7302330059999997</v>
+        <v>7.8824529400000003</v>
       </c>
       <c r="E4" s="1">
-        <v>3.342422681</v>
+        <v>6.7149254699999998</v>
       </c>
       <c r="F4" s="1">
-        <v>5.2914065939999997</v>
+        <v>5.8026146199999999</v>
       </c>
       <c r="G4" s="1">
-        <v>3.5684364139999998</v>
+        <v>6.7638107200000004</v>
       </c>
       <c r="H4" s="1">
-        <v>2.0293837780000001</v>
+        <v>1.8563334499999999</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1">
-        <v>5.1312239630000001</v>
+        <v>5.8353171699999997</v>
       </c>
       <c r="D5" s="1">
-        <v>4.8285632329999997</v>
+        <v>5.9363788</v>
       </c>
       <c r="E5" s="1">
-        <v>6.712655088</v>
+        <v>2.3991795300000001</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
-        <v>4.0382624070000004</v>
+        <v>3.9848115200000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1.8573324959999999</v>
+        <v>4.49143911</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
-        <v>5.5939912229999997</v>
+        <v>7.8258470999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>7.8812119149999997</v>
+        <v>2.6251068800000001</v>
       </c>
       <c r="E6" s="1">
-        <v>7.4052023680000003</v>
+        <v>2.9371298800000001</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
-        <v>6.8057515080000002</v>
+        <v>4.8949093000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>3.4557582029999998</v>
+        <v>2.5698314600000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
-        <v>5.8367948739999997</v>
+        <v>6.8918163799999999</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
-        <v>7.6988492710000003</v>
+        <v>4.1268755199999996</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1">
-        <v>4.2540886469999997</v>
+        <v>1.24696542</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
-        <v>5.9840756820000003</v>
+        <v>2.3291473100000002</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1">
-        <v>1.6720978580000001</v>
+        <v>1.7965204400000001</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1722,11 +1725,11 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
-        <v>6.3547760860000002</v>
+        <v>2.8542569100000001</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
-        <v>1.785329835</v>
+        <v>5.2482084999999996</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1736,11 +1739,11 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
-        <v>6.8837333010000004</v>
+        <v>7.7973749400000001</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
-        <v>2.9309490309999999</v>
+        <v>6.3437959900000003</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1750,11 +1753,11 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
-        <v>7.1636868040000001</v>
+        <v>6.3602448300000001</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
-        <v>3.2362852769999999</v>
+        <v>5.5289484299999998</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1764,11 +1767,11 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
-        <v>7.1767049759999999</v>
+        <v>5.5955024699999996</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
-        <v>4.1169396469999997</v>
+        <v>6.1484757400000003</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1778,11 +1781,11 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
-        <v>7.791462686</v>
+        <v>7.1707467100000004</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
-        <v>5.2487871119999996</v>
+        <v>7.4008880100000001</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1792,11 +1795,11 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
-        <v>7.8243293710000001</v>
+        <v>5.1206577199999996</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1">
-        <v>5.3323839169999996</v>
+        <v>7.7040912700000002</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1808,7 +1811,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
-        <v>5.5275048780000002</v>
+        <v>7.0647895500000004</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1820,7 +1823,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
-        <v>6.3411536760000002</v>
+        <v>3.3353213500000001</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1832,7 +1835,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
-        <v>6.777482429</v>
+        <v>6.7827089000000003</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1844,7 +1847,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
-        <v>7.0636420600000003</v>
+        <v>3.2321107800000002</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1856,7 +1859,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
-        <v>7.8312484419999997</v>
+        <v>6.4107824400000002</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1869,619 +1872,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1C7A5E-3E0D-9D4A-B502-1AC29B9625BF}">
-  <dimension ref="A1:C55"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2.1082266600000001</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2.6702458529999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2.6910814900000002</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4.765713248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2.21642983</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4.9382394449999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4.53173431</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.30102999600000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3.2828485999999999</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2.5943925499999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3.3098429999999999</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5.978416095</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2.5185139400000001</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2.0293837780000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1.9912260799999999</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6.1463965949999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.89209459999999996</v>
-      </c>
-      <c r="C10" s="1">
-        <v>6.6357620280000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.69810055000000004</v>
-      </c>
-      <c r="C11" s="1">
-        <v>6.9065068939999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3.8438554200000001</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1.8573324959999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2.5797835999999998</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2.4456042029999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1.10428221</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2.951337519</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2.8061799700000001</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3.342422681</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1">
-        <v>3.5301996999999998</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3.4557582029999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1.9047155499999999</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3.5684364139999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1.7209857399999999</v>
-      </c>
-      <c r="C18" s="1">
-        <v>4.0382624070000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1.8920946000000001</v>
-      </c>
-      <c r="C19" s="1">
-        <v>4.7302330059999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2.4623979999999999</v>
-      </c>
-      <c r="C20" s="1">
-        <v>4.8285632329999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2.2435341000000002</v>
-      </c>
-      <c r="C21" s="1">
-        <v>5.6522395699999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1.9790928999999999</v>
-      </c>
-      <c r="C22" s="1">
-        <v>6.712655088</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1.3424226800000001</v>
-      </c>
-      <c r="C23" s="1">
-        <v>6.8057515080000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2.8088858700000001</v>
-      </c>
-      <c r="C24" s="1">
-        <v>7.160827673</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2.2812606899999999</v>
-      </c>
-      <c r="C25" s="1">
-        <v>7.4052023680000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2.5751878399999999</v>
-      </c>
-      <c r="C26" s="1">
-        <v>7.6988492710000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="1">
-        <v>3.1238516399999998</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1.6720978580000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2.4893959200000002</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1.785329835</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="1">
-        <v>3.4548448600000001</v>
-      </c>
-      <c r="C29" s="1">
-        <v>2.3443922740000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2.2291696999999999</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2.7895807119999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2.2711443199999999</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2.8536982119999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1.8948696599999999</v>
-      </c>
-      <c r="C32" s="1">
-        <v>2.9309490309999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="1">
-        <v>2.5158738399999998</v>
-      </c>
-      <c r="C33" s="1">
-        <v>3.2362852769999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="1">
-        <v>2.0149403499999998</v>
-      </c>
-      <c r="C34" s="1">
-        <v>4.1169396469999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="1">
-        <v>2.7330366800000001</v>
-      </c>
-      <c r="C35" s="1">
-        <v>4.2540886469999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="1">
-        <v>2.2095150100000001</v>
-      </c>
-      <c r="C36" s="1">
-        <v>5.1312239630000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1.7126497000000001</v>
-      </c>
-      <c r="C37" s="1">
-        <v>5.2487871119999996</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="1">
-        <v>2.32654067</v>
-      </c>
-      <c r="C38" s="1">
-        <v>5.2914065939999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1">
-        <v>5.3323839169999996</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="1">
-        <v>2.2966651900000001</v>
-      </c>
-      <c r="C40" s="1">
-        <v>5.5275048780000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="1">
-        <v>2.0718820099999999</v>
-      </c>
-      <c r="C41" s="1">
-        <v>5.5939912229999997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="1">
-        <v>2.47290265</v>
-      </c>
-      <c r="C42" s="1">
-        <v>5.8367948739999997</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="1">
-        <v>2.43775056</v>
-      </c>
-      <c r="C43" s="1">
-        <v>5.9840756820000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="1">
-        <v>2.6042260499999998</v>
-      </c>
-      <c r="C44" s="1">
-        <v>6.3411536760000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="1">
-        <v>2.2395497199999999</v>
-      </c>
-      <c r="C45" s="1">
-        <v>6.3547760860000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1">
-        <v>6.777482429</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="1">
-        <v>1.5899496</v>
-      </c>
-      <c r="C47" s="1">
-        <v>6.8837333010000004</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="1">
-        <v>2.4996870800000002</v>
-      </c>
-      <c r="C48" s="1">
-        <v>7.0636420600000003</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="1">
-        <v>2.2095150100000001</v>
-      </c>
-      <c r="C49" s="1">
-        <v>7.1636868040000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="1">
-        <v>2.1325798499999999</v>
-      </c>
-      <c r="C50" s="1">
-        <v>7.1767049759999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="1">
-        <v>1.77158748</v>
-      </c>
-      <c r="C51" s="1">
-        <v>7.791462686</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" s="1">
-        <v>1.83821922</v>
-      </c>
-      <c r="C52" s="1">
-        <v>7.8243293710000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53" s="1">
-        <v>2.7573960300000002</v>
-      </c>
-      <c r="C53" s="1">
-        <v>7.8312484419999997</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="1">
-        <v>0.11394335</v>
-      </c>
-      <c r="C54" s="1">
-        <v>7.8812119149999997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" s="1">
-        <v>0.31806332999999998</v>
-      </c>
-      <c r="C55" s="1">
-        <v>8.5602625250000006</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAF3423-7E31-4D4D-B932-AE538BFB61F4}">
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2492,7 +1882,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
@@ -2500,310 +1890,306 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1">
-        <v>4.0683714200000001</v>
+        <v>1.7209857399999999</v>
       </c>
       <c r="C2" s="1">
-        <v>2.6702458529999999</v>
+        <v>3.9944207</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1">
-        <v>4.1359908499999998</v>
+        <v>1.9047155499999999</v>
       </c>
       <c r="C3" s="1">
-        <v>4.765713248</v>
+        <v>3.5655544899999998</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1">
-        <v>4.62797999</v>
+        <v>1.3424226800000001</v>
       </c>
       <c r="C4" s="1">
-        <v>4.9382394449999998</v>
+        <v>6.7638107200000004</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1">
-        <v>5.1615177299999999</v>
+        <v>1.10428221</v>
       </c>
       <c r="C5" s="1">
-        <v>0.30102999600000002</v>
+        <v>3.9848115200000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
-        <v>4.6011905300000002</v>
+        <v>2.21642983</v>
       </c>
       <c r="C6" s="1">
-        <v>2.5943925499999998</v>
+        <v>4.8949093000000001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1">
-        <v>4.1129399800000002</v>
+        <v>2.4623979999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>5.978416095</v>
+        <v>4.8264725200000003</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1">
-        <v>2.8959747299999998</v>
+        <v>1.8920946000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>2.0293837780000001</v>
+        <v>4.7288491400000003</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1">
-        <v>3.44901532</v>
+        <v>0.11394335</v>
       </c>
       <c r="C9" s="1">
-        <v>6.1463965949999997</v>
+        <v>7.8824529400000003</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>3.3098429999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>6.6357620280000003</v>
+        <v>5.9363788</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>2.1082266600000001</v>
       </c>
       <c r="C11" s="1">
-        <v>6.9065068939999996</v>
+        <v>2.6251068800000001</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1">
-        <v>3.69635639</v>
+        <v>2.7573960300000002</v>
       </c>
       <c r="C12" s="1">
-        <v>1.8573324959999999</v>
+        <v>7.8303881999999998</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1">
-        <v>2.5340261100000001</v>
+        <v>3.1238516399999998</v>
       </c>
       <c r="C13" s="1">
-        <v>2.4456042029999998</v>
+        <v>1.66711148</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1">
-        <v>1.4771212600000001</v>
+        <v>1.9790928999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>2.951337519</v>
+        <v>6.7149254699999998</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1">
-        <v>3.0289777099999999</v>
+        <v>2.5797835999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>3.342422681</v>
+        <v>2.3991795300000001</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1">
-        <v>4.1889284800000004</v>
+        <v>1.8948696599999999</v>
       </c>
       <c r="C16" s="1">
-        <v>3.4557582029999998</v>
+        <v>2.9371298800000001</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1">
-        <v>2.9148718200000001</v>
+        <v>2.0149403499999998</v>
       </c>
       <c r="C17" s="1">
-        <v>3.5684364139999998</v>
+        <v>4.1268755199999996</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1">
-        <v>2.3891660799999999</v>
+        <v>2.4893959200000002</v>
       </c>
       <c r="C18" s="1">
-        <v>4.0382624070000004</v>
+        <v>1.7965204400000001</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1">
-        <v>2.8959747299999998</v>
+        <v>1.7126497000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>4.7302330059999997</v>
+        <v>5.2482084999999996</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1">
-        <v>2.8959747299999998</v>
+        <v>2.6042260499999998</v>
       </c>
       <c r="C20" s="1">
-        <v>4.8285632329999997</v>
+        <v>6.3437959900000003</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1">
-        <v>2.0128372300000001</v>
+        <v>2.2966651900000001</v>
       </c>
       <c r="C21" s="1">
-        <v>5.6522395699999999</v>
+        <v>5.5289484299999998</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>2.9148718200000001</v>
+        <v>1.9912260799999999</v>
       </c>
       <c r="C22" s="1">
-        <v>6.712655088</v>
+        <v>6.1484757400000003</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1">
-        <v>2.3891660799999999</v>
+        <v>2.2812606899999999</v>
       </c>
       <c r="C23" s="1">
-        <v>6.8057515080000002</v>
+        <v>7.4008880100000001</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1">
-        <v>1.38021124</v>
+        <v>2.5751878399999999</v>
       </c>
       <c r="C24" s="1">
-        <v>7.160827673</v>
+        <v>7.7040912700000002</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1">
-        <v>3.5365584399999999</v>
+        <v>2.4996870800000002</v>
       </c>
       <c r="C25" s="1">
-        <v>7.4052023680000003</v>
+        <v>7.0647895500000004</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1">
-        <v>3.0289777099999999</v>
+        <v>2.8061799700000001</v>
       </c>
       <c r="C26" s="1">
-        <v>7.6988492710000003</v>
+        <v>3.3353213500000001</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="1">
-        <v>3.39550112</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1">
-        <v>1.6720978580000001</v>
+        <v>6.7827089000000003</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1">
-        <v>3.50650503</v>
+        <v>2.5158738399999998</v>
       </c>
       <c r="C28" s="1">
-        <v>1.785329835</v>
+        <v>3.2321107800000002</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2.0128372300000001</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="1">
-        <v>2.3443922740000001</v>
+        <v>6.4107824400000002</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2811,142 +2197,142 @@
         <v>41</v>
       </c>
       <c r="B30" s="1">
-        <v>3.7226339199999998</v>
+        <v>2.2291696999999999</v>
       </c>
       <c r="C30" s="1">
-        <v>2.7895807119999998</v>
+        <v>3.8657296300000001</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1">
-        <v>3.0655797200000001</v>
+        <v>2.32654067</v>
       </c>
       <c r="C31" s="1">
-        <v>2.8536982119999998</v>
+        <v>6.3702510400000003</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B32" s="1">
-        <v>3.50650503</v>
+        <v>2.6910814900000002</v>
       </c>
       <c r="C32" s="1">
-        <v>2.9309490309999999</v>
+        <v>5.8026146199999999</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B33" s="1">
-        <v>3.39550112</v>
+        <v>2.5185139400000001</v>
       </c>
       <c r="C33" s="1">
-        <v>3.2362852769999999</v>
+        <v>2.0124062999999999</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" s="1">
-        <v>3.50650503</v>
+        <v>2.7330366800000001</v>
       </c>
       <c r="C34" s="1">
-        <v>4.1169396469999997</v>
+        <v>4.2540088000000003</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B35" s="1">
-        <v>2.3891660799999999</v>
+        <v>3.8438554200000001</v>
       </c>
       <c r="C35" s="1">
-        <v>4.2540886469999997</v>
+        <v>1.8563334499999999</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B36" s="1">
-        <v>2.0128372300000001</v>
+        <v>3.5301996999999998</v>
       </c>
       <c r="C36" s="1">
-        <v>5.1312239630000001</v>
+        <v>4.49143911</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B37" s="1">
-        <v>3.50650503</v>
+        <v>3.2828485999999999</v>
       </c>
       <c r="C37" s="1">
-        <v>5.2487871119999996</v>
+        <v>2.5698314600000001</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B38" s="1">
-        <v>3.6101276100000002</v>
+        <v>4.53173431</v>
       </c>
       <c r="C38" s="1">
-        <v>5.2914065939999997</v>
+        <v>1.24696542</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B39" s="1">
-        <v>3.1855421599999998</v>
+        <v>0.89209459999999996</v>
       </c>
       <c r="C39" s="1">
-        <v>5.3323839169999996</v>
+        <v>6.6350481200000004</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B40" s="1">
-        <v>3.39550112</v>
+        <v>0.31806332999999998</v>
       </c>
       <c r="C40" s="1">
-        <v>5.5275048780000002</v>
+        <v>8.5653853899999994</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B41" s="1">
-        <v>2.0128372300000001</v>
+        <v>0.69810055000000004</v>
       </c>
       <c r="C41" s="1">
-        <v>5.5939912229999997</v>
+        <v>6.9076666199999996</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B42" s="1">
-        <v>2.2068258799999998</v>
+        <v>2.8088858700000001</v>
       </c>
       <c r="C42" s="1">
-        <v>5.8367948739999997</v>
+        <v>7.1625130099999996</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2954,43 +2340,43 @@
         <v>54</v>
       </c>
       <c r="B43" s="1">
-        <v>2.0128372300000001</v>
+        <v>2.43775056</v>
       </c>
       <c r="C43" s="1">
-        <v>5.9840756820000003</v>
+        <v>5.9862258199999996</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B44" s="1">
-        <v>3.39550112</v>
+        <v>2.1325798499999999</v>
       </c>
       <c r="C44" s="1">
-        <v>6.3411536760000002</v>
+        <v>7.1848885200000003</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B45" s="1">
-        <v>3.0655797200000001</v>
+        <v>2.47290265</v>
       </c>
       <c r="C45" s="1">
-        <v>6.3547760860000002</v>
+        <v>5.8353171699999997</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B46" s="1">
-        <v>3.15594302</v>
+        <v>1.83821922</v>
       </c>
       <c r="C46" s="1">
-        <v>6.777482429</v>
+        <v>7.8258470999999998</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2998,98 +2384,736 @@
         <v>58</v>
       </c>
       <c r="B47" s="1">
-        <v>2.2068258799999998</v>
+        <v>1.5899496</v>
       </c>
       <c r="C47" s="1">
-        <v>6.8837333010000004</v>
+        <v>6.8918163799999999</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B48" s="1">
-        <v>3.39550112</v>
+        <v>3.4548448600000001</v>
       </c>
       <c r="C48" s="1">
-        <v>7.0636420600000003</v>
+        <v>2.3291473100000002</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B49" s="1">
-        <v>2.0128372300000001</v>
+        <v>2.2711443199999999</v>
       </c>
       <c r="C49" s="1">
-        <v>7.1636868040000001</v>
+        <v>2.8542569100000001</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B50" s="1">
-        <v>2.2068258799999998</v>
+        <v>1.77158748</v>
       </c>
       <c r="C50" s="1">
-        <v>7.1767049759999999</v>
+        <v>7.7973749400000001</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B51" s="1">
-        <v>3.0655797200000001</v>
+        <v>2.2395497199999999</v>
       </c>
       <c r="C51" s="1">
-        <v>7.791462686</v>
+        <v>6.3602448300000001</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1">
-        <v>2.2068258799999998</v>
+        <v>2.0718820099999999</v>
       </c>
       <c r="C52" s="1">
-        <v>7.8243293710000001</v>
+        <v>5.5955024699999996</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B53" s="1">
-        <v>3.39550112</v>
+        <v>2.2095150100000001</v>
       </c>
       <c r="C53" s="1">
-        <v>7.8312484419999997</v>
+        <v>7.1707467100000004</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B54" s="1">
-        <v>2.3891660799999999</v>
+        <v>2.2095150100000001</v>
       </c>
       <c r="C54" s="1">
-        <v>7.8812119149999997</v>
+        <v>5.1206577199999996</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2.2435341000000002</v>
+      </c>
+      <c r="C55" s="1">
+        <v>5.65400627</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="3"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAF3423-7E31-4D4D-B932-AE538BFB61F4}">
+  <dimension ref="A1:C62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.3891660799999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.9944207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.9148718200000001</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.5655544899999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.3891660799999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6.7638107200000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.4771212499999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.9848115200000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4.62797999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.8949093000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.8959747299999998</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.8264725200000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.8959747299999998</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.7288491400000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.3891660799999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7.8824529400000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4.1129399800000002</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.9363788</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4.0683714200000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.6251068800000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3.39550112</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7.8303881999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3.39550112</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.66711148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.9148718200000001</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6.7149254699999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.5340261100000001</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.3991795300000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3.50650503</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.9371298800000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3.50650503</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4.1268755199999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3.50650503</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.7965204400000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3.50650503</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5.2482084999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3.39550112</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6.3437959900000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3.39550112</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5.5289484299999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3.44901532</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6.1484757400000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3.5365584399999999</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7.4008880100000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3.0289777099999999</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7.7040912700000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3.39550112</v>
+      </c>
+      <c r="C25" s="1">
+        <v>7.0647895500000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3.0289777099999999</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3.3353213500000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3.15594302</v>
+      </c>
+      <c r="C27" s="1">
+        <v>6.7827089000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3.39550112</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3.2321107800000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3.1855421499999999</v>
+      </c>
+      <c r="C29" s="1">
+        <v>6.4107824400000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3.7226339199999998</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3.8657296300000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3.6101276100000002</v>
+      </c>
+      <c r="C31" s="1">
+        <v>6.3702510400000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4.1359908499999998</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5.8026146199999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2.8959747299999998</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2.0124062999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2.3891660799999999</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4.2540088000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3.69635639</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1.8563334499999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4.1889284800000004</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4.49143911</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4.6011905300000002</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2.5698314600000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="1">
+        <v>5.1615177299999999</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.24696542</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>6.6350481200000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>8.5653853899999994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>6.9076666199999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1.38021124</v>
+      </c>
+      <c r="C42" s="1">
+        <v>7.1625130099999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2.0128372200000002</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5.9862258199999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2.2068258799999998</v>
+      </c>
+      <c r="C44" s="1">
+        <v>7.1848885200000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2.2068258799999998</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5.8353171699999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2.2068258799999998</v>
+      </c>
+      <c r="C46" s="1">
+        <v>7.8258470999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2.2068258799999998</v>
+      </c>
+      <c r="C47" s="1">
+        <v>6.8918163799999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2.0128372200000002</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2.3291473100000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="1">
+        <v>3.0655797100000002</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2.8542569100000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="1">
+        <v>3.0655797100000002</v>
+      </c>
+      <c r="C50" s="1">
+        <v>7.7973749400000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="1">
+        <v>3.0655797100000002</v>
+      </c>
+      <c r="C51" s="1">
+        <v>6.3602448300000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2.0128372200000002</v>
+      </c>
+      <c r="C52" s="1">
+        <v>5.5955024699999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2.0128372200000002</v>
+      </c>
+      <c r="C53" s="1">
+        <v>7.1707467100000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2.0128372200000002</v>
+      </c>
+      <c r="C54" s="1">
+        <v>5.1206577199999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="B55" s="1">
-        <v>0</v>
+        <v>2.0128372200000002</v>
       </c>
       <c r="C55" s="1">
-        <v>8.5602625250000006</v>
+        <v>5.65400627</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
